--- a/file_service/report.xlsx
+++ b/file_service/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asosiy\PyCharm\MIMA_Bot\file_service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8AC798-49B6-49EF-922B-1566B60503CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943789E7-9366-4CBE-A02F-E599D9802418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A54F5EB-C6FC-4EF9-8936-A92D8FEF7CF0}"/>
   </bookViews>
@@ -408,29 +408,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,7 +755,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E4" sqref="E4:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -768,15 +768,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
@@ -784,10 +784,10 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -823,9 +823,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
+      <c r="E4" s="7"/>
       <c r="F4" s="9"/>
       <c r="G4" s="14"/>
     </row>
@@ -840,9 +838,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
+      <c r="E5" s="7"/>
       <c r="F5" s="9"/>
       <c r="G5" s="14"/>
     </row>
@@ -857,9 +853,7 @@
         <v>120</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="7">
-        <v>39</v>
-      </c>
+      <c r="E6" s="7"/>
       <c r="F6" s="9"/>
       <c r="G6" s="14"/>
     </row>
@@ -874,9 +868,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="9"/>
       <c r="G7" s="14"/>
     </row>
@@ -891,9 +883,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="7">
-        <v>3</v>
-      </c>
+      <c r="E8" s="7"/>
       <c r="F8" s="9"/>
       <c r="G8" s="14"/>
     </row>
@@ -908,9 +898,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="9"/>
       <c r="G9" s="14"/>
     </row>
@@ -925,9 +913,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="7">
-        <v>5</v>
-      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="9"/>
       <c r="G10" s="14"/>
     </row>
@@ -942,9 +928,7 @@
         <v>50</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="7">
-        <v>5</v>
-      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="9"/>
       <c r="G11" s="14"/>
     </row>
@@ -959,9 +943,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="9"/>
       <c r="G12" s="14"/>
     </row>
@@ -976,17 +958,15 @@
         <v>50</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="9"/>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="6">
         <f>SUM(C4:C13)</f>
         <v>620</v>
@@ -997,10 +977,10 @@
       </c>
       <c r="E14" s="8">
         <f>SUM(E4:E13)</f>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" ref="E14:G14" si="0">SUM(F4:F13)</f>
+        <f t="shared" ref="F14:G14" si="0">SUM(F4:F13)</f>
         <v>0</v>
       </c>
       <c r="G14" s="15">
@@ -1010,24 +990,24 @@
     </row>
     <row r="16" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="23"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="22"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
